--- a/bad_channels_done_added_allrun.xlsx
+++ b/bad_channels_done_added_allrun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qq文件\交接代码\server_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845B1951-1E42-4E76-8C75-F9069FB14201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541B640B-80C5-4C65-9711-B240E6898C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="144">
   <si>
     <t>ummc_001</t>
   </si>
@@ -408,18 +408,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MST2,PO5,PO6,PO7,PO8,PO9,PO10,R1,R2,SO7,SO8,SO9,SO10,SO11,SO12,E,DC01,$MST1,$MST2,EKG1,EKG2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F1,F2,F3,F4,F5,F6,OF4,R1,R2,F4,P49,P50,P51,P52,P53,P54,P55,P56,P57,P58,P59,P60,P61,P62,P63,P64,E,AST1,DC01,DC02,DC03,DC04,$AST1,$AST2,EKG1,EKG2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LIAI1,LIAI2,LIAI3,LIAI6,LIM1,LIM2,LIM3,LIM4,LIPI1,LIPI2,LIPI3,LIPI4,LIPI5,LIPI6,R1,R2,RIAS1,RIAS2,RIAS3,RIAS4,RIAI1,RIAI2,RIAI3,RIAI4,RIAI5,RIAI6,RIM1,RIM2,RIM3,RIM4,RIPI1,RIPI2,RIPI3,RIPI5,RIPI6,RIPS1,RIPS2,RIPS3,RIPS5,RIPS6,RAL8,RAM8,RAL4,RG25,E,DC01,$RG1,$RG2,EKG1,EKG2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>R1,R2,E,DC01,DC02,DC03,DC04,$TT3,$TT4,EKG1,EKG2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,10 +424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PST3,PST4,R1,R2,R3,R4,B19,LSF8,G2,G10,OF2,TT5,DC09,DC10,DC11,DC12,$G13,$G14,EKG1,EKG2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>R1,R2,R3,R4,R5,E,DC01,DC02,DC03,DC04,$AST1,$AST2,EKG1,EKG2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,6 +453,78 @@
   </si>
   <si>
     <t>E,-0,-1,DC01,DC02,DC03,DC04,$RDI1,$RDI2,EKG1,EKG2,RAF1,LIP5,RDI5,RIP7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALEX1,ALEX2,ALEX4,ALEX5,ALEX6,ALEX7,ALEX8,LAEX3,RQ1,RQ2,G17,G25,G5,G6,E,DC01,DC09,DC10,DC11,DC12,$G11,$G12,EKG1,EKG2,PST1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RR1,RR2,RR3,RR4,LR1,LR2,LR3,LR4,LPLT1,LPLT6,DC01,DC09,DC10,DC11,DC12,$RALT5,$RALT6,EKG1,EKG2,LFT6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G33,G34,G35,G36,G48,R1,R2,MFP5,MFP6,LFP6,LFP7,LFP8,MT6,LSF6,E,DC01,$LFP3,$LFP4,EKG1,EKG2,G42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MST2,PO5,PO6,PO7,PO8,PO9,PO10,R1,R2,SO7,SO8,SO9,SO10,SO11,SO12,E,DC01,$MST1,$MST2,EKG1,EKG2,MST3,PPST1,MST1,TO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MST2,PO5,PO6,PO7,PO8,PO9,PO10,R1,R2,SO7,SO8,SO9,SO10,SO11,SO12,E,DC01,$MST1,$MST2,EKG1,EKG2,MST3,PPST1,MST1,TO1,PPST2,G25,G9,G16,G8,TO6,TO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MST2,PO5,PO6,PO7,PO8,PO9,PO10,R1,R2,SO7,SO8,SO9,SO10,SO11,SO12,E,DC01,$MST1,$MST2,EKG1,EKG2,G8,MST1,PPST1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIAI1,LIAI2,LIAI3,LIAI6,LIM1,LIM2,LIM3,LIM4,LIPI1,LIPI2,LIPI3,LIPI4,LIPI5,LIPI6,R1,R2,RIAS1,RIAS2,RIAS3,RIAS4,RIAI1,RIAI2,RIAI3,RIAI4,RIAI5,RIAI6,RIM1,RIM2,RIM3,RIM4,RIPI1,RIPI2,RIPI3,RIPI5,RIPI6,RIPS1,RIPS2,RIPS3,RIPS5,RIPS6,RAL8,RAM8,RAL4,RG25,E,DC01,$RG1,$RG2,EKG1,EKG2,RG3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIAI1,LIAI2,LIAI3,LIAI6,LIM1,LIM2,LIM3,LIM4,LIPI1,LIPI2,LIPI3,LIPI4,LIPI5,LIPI6,R1,R2,RIAS1,RIAS2,RIAS3,RIAS4,RIAI1,RIAI2,RIAI3,RIAI4,RIAI5,RIAI6,RIM1,RIM2,RIM3,RIM4,RIPI1,RIPI2,RIPI3,RIPI5,RIPI6,RIPS1,RIPS2,RIPS3,RIPS5,RIPS6,RAL8,RAM8,RAL4,RG25,E,DC01,$RG1,$RG2,EKG1,EKG2,RPG9,RPG1,LG1,LG3,LIAI4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIAI1,LIAI2,LIAI3,LIAI6,LIM1,LIM2,LIM3,LIM4,LIPI1,LIPI2,LIPI3,LIPI4,LIPI5,LIPI6,R1,R2,RIAS1,RIAS2,RIAS3,RIAS4,RIAI1,RIAI2,RIAI3,RIAI4,RIAI5,RIAI6,RIM1,RIM2,RIM3,RIM4,RIPI1,RIPI2,RIPI3,RIPI5,RIPI6,RIPS1,RIPS2,RIPS3,RIPS5,RIPS6,RAL8,RAM8,RAL4,RG25,E,DC01,EKG1,EKG2,$RG11,$RG12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIAI1,LIAI2,LIAI3,LIAI6,LIM1,LIM2,LIM3,LIM4,LIPI1,LIPI2,LIPI3,LIPI4,LIPI5,LIPI6,R1,R2,RIAS1,RIAS2,RIAS3,RIAS4,RIAI1,RIAI2,RIAI3,RIAI4,RIAI5,RIAI6,RIM1,RIM2,RIM3,RIM4,RIPI1,RIPI2,RIPI3,RIPI5,RIPI6,RIPS1,RIPS2,RIPS3,RIPS5,RIPS6,RAL8,RAM8,RAL4,RG25,E,DC01,EKG1,EKG2,$RG11,$RG12,RAM1,RIPS4-0,LIPS5,LIPS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FP1,FP2,FP3,FP4,R1,R2,RAIH3,RPIH2,RPPIH2,DC09,DC10,$G11,$G12,EKG1,EKG2,G16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G5,G6,G7,G15,G23,P1,P2,P3,P4,P5,P6,RU1,RU2,PST4,E,DC09,DC10,DC11,$G13,$G14,EKG1,EKG2,TT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PST3,PST4,R1,R2,R3,R4,B19,LSF8,G2,G10,OF2,TT5,DC09,DC10,DC11,DC12,$G13,$G14,EKG1,EKG2,PPST3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PST3,PST4,R1,R2,R3,R4,B19,LSF8,G2,G10,OF2,TT5,DC09,DC10,DC11,DC12,$G13,$G14,EKG1,EKG2,PPST3,TT3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PST3,PST4,R1,R2,R3,R4,B19,LSF8,G2,G10,OF2,TT5,DC09,DC10,DC11,DC12,$G13,$G14,EKG1,EKG2,LIF4,LIF5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PST3,PST4,R1,R2,R3,R4,B19,LSF8,G2,G10,OF2,TT5,DC09,DC10,DC11,DC12,$G13,$G14,EKG1,EKG2,LIF6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1,R2,R3,R4,R5,E,DC01,DC02,DC03,DC04,$AST1,$AST2,EKG1,EKG2,OF4,MST4,TT6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1,R2,R3,R4,R5,E,DC01,DC02,DC03,DC04,$AST1,$AST2,EKG1,EKG2,MST4,TT6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1006,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1061,7 +1121,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1069,7 +1129,7 @@
         <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1117,7 +1177,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1133,7 +1193,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1141,7 +1201,7 @@
         <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1149,7 +1209,7 @@
         <v>83</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1157,7 +1217,7 @@
         <v>84</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1165,7 +1225,7 @@
         <v>85</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1173,7 +1233,7 @@
         <v>86</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1181,7 +1241,7 @@
         <v>87</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1189,7 +1249,7 @@
         <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1197,7 +1257,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1205,7 +1265,7 @@
         <v>90</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1213,7 +1273,7 @@
         <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1221,7 +1281,7 @@
         <v>92</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1229,7 +1289,7 @@
         <v>93</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1237,7 +1297,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1245,7 +1305,7 @@
         <v>95</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1253,7 +1313,7 @@
         <v>96</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1261,7 +1321,7 @@
         <v>97</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1269,7 +1329,7 @@
         <v>98</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1277,7 +1337,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1285,7 +1345,7 @@
         <v>100</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1293,7 +1353,7 @@
         <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1301,7 +1361,7 @@
         <v>102</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1309,7 +1369,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" customHeight="1">
@@ -1317,7 +1377,7 @@
         <v>104</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1325,7 +1385,7 @@
         <v>105</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" customHeight="1">
@@ -1333,7 +1393,7 @@
         <v>106</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" customHeight="1">
@@ -1341,7 +1401,7 @@
         <v>107</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" customHeight="1">
@@ -1349,7 +1409,7 @@
         <v>108</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" customHeight="1">
@@ -1437,7 +1497,7 @@
         <v>21</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1445,7 +1505,7 @@
         <v>22</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1461,7 +1521,7 @@
         <v>27</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15">
@@ -1565,7 +1625,7 @@
         <v>40</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15">
@@ -1573,7 +1633,7 @@
         <v>41</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1613,7 +1673,7 @@
         <v>47</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15">
@@ -1637,7 +1697,7 @@
         <v>51</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15">
@@ -1653,7 +1713,7 @@
         <v>53</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15">

--- a/bad_channels_done_added_allrun.xlsx
+++ b/bad_channels_done_added_allrun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qq文件\交接代码\server_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541B640B-80C5-4C65-9711-B240E6898C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6B6C42-743E-45AE-BD8B-B484F9276190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,71 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="144">
-  <si>
-    <t>ummc_001</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="168">
   <si>
     <t>F2,OFI6,GP23,GP30,TI8,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128</t>
   </si>
   <si>
-    <t>ummc002</t>
-  </si>
-  <si>
-    <t>G16,G27,G23,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128</t>
-  </si>
-  <si>
-    <t>ummc003</t>
-  </si>
-  <si>
-    <t>G18,G7,G14,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128</t>
-  </si>
-  <si>
-    <t>ummc004</t>
-  </si>
-  <si>
-    <t>G3,G10,G14,C50,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128</t>
-  </si>
-  <si>
-    <t>ummc005</t>
-  </si>
-  <si>
-    <t>G18,AT6,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128</t>
-  </si>
-  <si>
-    <t>ummc006</t>
-  </si>
-  <si>
-    <t>ummc_007</t>
-  </si>
-  <si>
-    <t>C33,C34,C35,C36,C37,C38,C39,C40,C41,C42,C43,C44,C45,C46,C47,C48,C49,C50,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128</t>
-  </si>
-  <si>
-    <t>ummc008</t>
-  </si>
-  <si>
-    <t>ummc009</t>
-  </si>
-  <si>
-    <t>G20,C49,C50,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128</t>
-  </si>
-  <si>
-    <t>umf001</t>
-  </si>
-  <si>
-    <t>G2,G6,G10,G14,C57,C58,C59,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G12,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C96,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jh101_run-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,6 +465,163 @@
   </si>
   <si>
     <t>R1,R2,R3,R4,R5,E,DC01,DC02,DC03,DC04,$AST1,$AST2,EKG1,EKG2,MST4,TT6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ummc001_run-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ummc001_run-02</t>
+  </si>
+  <si>
+    <t>ummc001_run-03</t>
+  </si>
+  <si>
+    <t>ummc002_run-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ummc002_run-02</t>
+  </si>
+  <si>
+    <t>ummc002_run-03</t>
+  </si>
+  <si>
+    <t>ummc003_run-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ummc003_run-02</t>
+  </si>
+  <si>
+    <t>ummc003_run-03</t>
+  </si>
+  <si>
+    <t>ummc004_run-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ummc004_run-02</t>
+  </si>
+  <si>
+    <t>ummc004_run-03</t>
+  </si>
+  <si>
+    <t>ummc005_run-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ummc005_run-02</t>
+  </si>
+  <si>
+    <t>ummc006_run-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ummc006_run-02</t>
+  </si>
+  <si>
+    <t>ummc006_run-03</t>
+  </si>
+  <si>
+    <t>ummc008_run-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ummc008_run-02</t>
+  </si>
+  <si>
+    <t>ummc008_run-03</t>
+  </si>
+  <si>
+    <t>ummc009_run-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ummc009_run-02</t>
+  </si>
+  <si>
+    <t>ummc009_run-03</t>
+  </si>
+  <si>
+    <t>G18,G7,G14,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128,EKG1,EKG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3,G10,G14,C50,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128,AT1,AT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G18,AT6,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128,ECGL,ECGR,G7,G14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2,G6,G10,G14,C57,C58,C59,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128,EKG1,EKG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C33,C34,C35,C36,C37,C38,C39,C40,C41,C42,C43,C44,C45,C46,C47,C48,C49,C50,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128,EKG1,EKG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G12,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128,G1,G8,C52,C53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G20,C49,C50,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128,EKG1,EKG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>umf001_run-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C96,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128,EKGL,EKGR,LM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G16,G27,G23,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128,EKG,EKG2,ANT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G16,G27,G23,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128,EKG2,EKG1,ANT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G16,G27,G23,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128,EKG1,EKG2,ANT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3,G10,G14,C50,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128,AT1,AT2,AT3,AT4,AT5,AT6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3,G10,G14,C50,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128,AT1,AT2,G23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ummc007_run-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ummc007_run-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ummc007_run-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C33,C34,C35,C36,C37,C38,C39,C40,C41,C42,C43,C44,C45,C46,C47,C48,C49,C50,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128,EKG1,EKG2,LANT4,LANT5,RANT5,RMES3,RPT6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G12,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128,G1,G8,EKG1,EKG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2,OFI6,GP23,GP30,TI8,C93,C94,C95,C96,C97,C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,137 +724,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1064,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1078,743 +1045,814 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" customHeight="1">
       <c r="A43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15" customHeight="1">
-      <c r="A44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="45" spans="1:2" ht="15" customHeight="1">
-      <c r="A45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15">
-      <c r="A56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15">
-      <c r="A57" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15">
-      <c r="A58" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15">
-      <c r="A59" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15">
-      <c r="A60" s="3" t="s">
-        <v>31</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15">
-      <c r="A61" s="3" t="s">
-        <v>32</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>59</v>
+      <c r="A62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15">
-      <c r="A65" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15">
-      <c r="A66" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15">
-      <c r="A67" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15">
-      <c r="A68" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15">
-      <c r="A69" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15">
-      <c r="A70" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>122</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>123</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15">
+      <c r="A73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15">
+      <c r="A74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15">
+      <c r="A75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15">
       <c r="A76" s="3" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15">
       <c r="A77" s="3" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15">
       <c r="A78" s="3" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15">
-      <c r="A79" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="15">
-      <c r="A80" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15">
-      <c r="A81" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15">
       <c r="A82" s="3" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B83" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15">
+      <c r="A83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15">
+      <c r="A84" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15">
+      <c r="A85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15">
+      <c r="A86" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15">
+      <c r="A87" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15">
+      <c r="A93" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15">
+      <c r="A94" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15">
+      <c r="A95" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15">
+      <c r="A96" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15">
+      <c r="A97" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15">
+      <c r="A98" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15">
+      <c r="A99" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B83">
-    <cfRule type="containsBlanks" dxfId="14" priority="15">
-      <formula>LEN(TRIM(B83))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="containsBlanks" dxfId="13" priority="14">
+  <conditionalFormatting sqref="B2:B26">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="containsBlanks" dxfId="12" priority="13">
-      <formula>LEN(TRIM(B3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="containsBlanks" dxfId="11" priority="12">
-      <formula>LEN(TRIM(B4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="containsBlanks" dxfId="10" priority="11">
-      <formula>LEN(TRIM(B5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="containsBlanks" dxfId="9" priority="10">
-      <formula>LEN(TRIM(B6))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="containsBlanks" dxfId="8" priority="9">
-      <formula>LEN(TRIM(B7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="containsBlanks" dxfId="7" priority="8">
-      <formula>LEN(TRIM(B8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B10">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
-      <formula>LEN(TRIM(B9))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13 B11">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(B11))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(B12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B16">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(B14))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B19">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(B17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B22">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(B20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B26">
+  <conditionalFormatting sqref="B100">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B23))=0</formula>
+      <formula>LEN(TRIM(B100))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
